--- a/project_files/flowchart.xlsx
+++ b/project_files/flowchart.xlsx
@@ -1194,6 +1194,13 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{01DC9212-29C2-42C1-98A4-A73AF81202AD}" type="pres">
       <dgm:prSet presAssocID="{E54EA5F0-FC4F-48E6-943B-560ACFE5DFED}" presName="hierRoot1" presStyleCnt="0">
@@ -1214,10 +1221,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7DD90047-E7CF-48C0-BB3C-63BEBBFA35CF}" type="pres">
       <dgm:prSet presAssocID="{E54EA5F0-FC4F-48E6-943B-560ACFE5DFED}" presName="rootConnector1" presStyleLbl="node1" presStyleIdx="0" presStyleCnt="0"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{3B78DBCE-7A4F-4ECC-BC77-BD80C4651D46}" type="pres">
       <dgm:prSet presAssocID="{E54EA5F0-FC4F-48E6-943B-560ACFE5DFED}" presName="hierChild2" presStyleCnt="0"/>
@@ -1226,6 +1247,13 @@
     <dgm:pt modelId="{04223BB7-80B8-4258-AA7B-B410217172FD}" type="pres">
       <dgm:prSet presAssocID="{5CBB51B2-A31F-40D3-8652-661764C6FAAC}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E576EACF-DA78-4A11-A346-EB49CC247481}" type="pres">
       <dgm:prSet presAssocID="{52FF2AF7-BA58-4DA2-A022-1361E283F781}" presName="hierRoot2" presStyleCnt="0">
@@ -1246,10 +1274,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{7B195527-9AB0-4C15-BF70-9E39B0D1B635}" type="pres">
       <dgm:prSet presAssocID="{52FF2AF7-BA58-4DA2-A022-1361E283F781}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="0" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{0F1676A0-B937-4FDA-9865-8963B35DEAB7}" type="pres">
       <dgm:prSet presAssocID="{52FF2AF7-BA58-4DA2-A022-1361E283F781}" presName="hierChild4" presStyleCnt="0"/>
@@ -1262,6 +1304,13 @@
     <dgm:pt modelId="{EEF5F43B-15FE-4CD0-9D9E-B3A0A70394AE}" type="pres">
       <dgm:prSet presAssocID="{6F3681E5-ED02-4820-B6DE-4C5B5AB146A4}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="1" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{58FB16E9-06AF-4853-9BA6-A763F8E22D7A}" type="pres">
       <dgm:prSet presAssocID="{C3BE4ADD-A185-42E6-BCDD-E4AC66FA3E1B}" presName="hierRoot2" presStyleCnt="0">
@@ -1282,10 +1331,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA73ECB1-3346-4444-95A6-CB0A0380A83F}" type="pres">
       <dgm:prSet presAssocID="{C3BE4ADD-A185-42E6-BCDD-E4AC66FA3E1B}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="1" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1074FA58-ED6E-4575-9D37-C8CEA918F94A}" type="pres">
       <dgm:prSet presAssocID="{C3BE4ADD-A185-42E6-BCDD-E4AC66FA3E1B}" presName="hierChild4" presStyleCnt="0"/>
@@ -1294,6 +1357,13 @@
     <dgm:pt modelId="{AF503BAF-ED3D-480A-9E1B-F014ECD56566}" type="pres">
       <dgm:prSet presAssocID="{D54234E8-B9F3-4354-8DE4-AA2A164B816D}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{DEF446F9-B0FA-44D0-B55D-65647F74D742}" type="pres">
       <dgm:prSet presAssocID="{FBE7E225-E57E-47E2-AEF0-8E4142AABAE1}" presName="hierRoot2" presStyleCnt="0">
@@ -1325,6 +1395,13 @@
     <dgm:pt modelId="{DB21453C-8A8D-4A37-BBDE-3C359E30E4B7}" type="pres">
       <dgm:prSet presAssocID="{FBE7E225-E57E-47E2-AEF0-8E4142AABAE1}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="0" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{A2909FA2-E504-4AE9-AE1A-4A0E9318B98E}" type="pres">
       <dgm:prSet presAssocID="{FBE7E225-E57E-47E2-AEF0-8E4142AABAE1}" presName="hierChild4" presStyleCnt="0"/>
@@ -1341,6 +1418,13 @@
     <dgm:pt modelId="{5BEA6AD3-15B0-422C-8F43-9586E9322A7C}" type="pres">
       <dgm:prSet presAssocID="{A7B7F869-5B8A-4F5E-93DD-E4EE489F640D}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="2" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{FA0D4589-CB19-4621-A408-73C3C13B6B1B}" type="pres">
       <dgm:prSet presAssocID="{20684A72-8B7A-4552-B16B-FD4EF00780C0}" presName="hierRoot2" presStyleCnt="0">
@@ -1361,10 +1445,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{E7AFE4F3-AE6D-4DED-9F10-800F76C22756}" type="pres">
       <dgm:prSet presAssocID="{20684A72-8B7A-4552-B16B-FD4EF00780C0}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="2" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{B7F47FA4-D2EB-4449-A746-864BC40BB9A2}" type="pres">
       <dgm:prSet presAssocID="{20684A72-8B7A-4552-B16B-FD4EF00780C0}" presName="hierChild4" presStyleCnt="0"/>
@@ -1377,6 +1475,13 @@
     <dgm:pt modelId="{F95D14EC-97AE-49EA-95F4-DB0D4F1E3786}" type="pres">
       <dgm:prSet presAssocID="{D5E4DFBD-FF4D-4C42-9546-5C1CB60F178C}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{92D1BE6D-0C8C-466C-87D1-8A299793E5D3}" type="pres">
       <dgm:prSet presAssocID="{9D5E850D-3244-479B-AB98-ED9D3A44C7FE}" presName="hierRoot2" presStyleCnt="0">
@@ -1397,10 +1502,24 @@
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{23618346-0233-4486-B323-0F7721A2C4C5}" type="pres">
       <dgm:prSet presAssocID="{9D5E850D-3244-479B-AB98-ED9D3A44C7FE}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="3" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{984FD51C-7E9A-40C8-8952-75793F455B1E}" type="pres">
       <dgm:prSet presAssocID="{9D5E850D-3244-479B-AB98-ED9D3A44C7FE}" presName="hierChild4" presStyleCnt="0"/>
@@ -1413,6 +1532,13 @@
     <dgm:pt modelId="{DC6A0D45-DA05-4A52-8606-7E554EAD9B1B}" type="pres">
       <dgm:prSet presAssocID="{D6CB61EB-36A9-4F07-9BD9-8F0293009A91}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="4" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2BAC545B-0277-4B3F-B65F-1E20C62D4217}" type="pres">
       <dgm:prSet presAssocID="{784DEF31-1FDE-46C3-9311-E691FC00398A}" presName="hierRoot2" presStyleCnt="0">
@@ -1427,16 +1553,30 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{1ED7DE2C-D46E-406F-8350-C506C51735B0}" type="pres">
-      <dgm:prSet presAssocID="{784DEF31-1FDE-46C3-9311-E691FC00398A}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6" custScaleX="116116">
+      <dgm:prSet presAssocID="{784DEF31-1FDE-46C3-9311-E691FC00398A}" presName="rootText" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6" custScaleX="116116" custLinFactNeighborX="-9580">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
       </dgm:prSet>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{1270D253-288B-401B-935D-36A0B0D5B32C}" type="pres">
       <dgm:prSet presAssocID="{784DEF31-1FDE-46C3-9311-E691FC00398A}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="4" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9AE8494F-9892-480D-BF7D-E94BFB0D8528}" type="pres">
       <dgm:prSet presAssocID="{784DEF31-1FDE-46C3-9311-E691FC00398A}" presName="hierChild4" presStyleCnt="0"/>
@@ -1445,6 +1585,13 @@
     <dgm:pt modelId="{587CAAFF-602F-4A2C-81F2-CE244DBB4F51}" type="pres">
       <dgm:prSet presAssocID="{68058E79-54A0-4147-A0A2-05042E0236E4}" presName="Name37" presStyleLbl="parChTrans1D3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{15A399E5-841B-4417-941F-C44D62F19578}" type="pres">
       <dgm:prSet presAssocID="{C4A8987E-4640-402E-8FA7-16BF3AA45D94}" presName="hierRoot2" presStyleCnt="0">
@@ -1459,7 +1606,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{6A250F87-D49D-4CD2-B157-484E230BE224}" type="pres">
-      <dgm:prSet presAssocID="{C4A8987E-4640-402E-8FA7-16BF3AA45D94}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2">
+      <dgm:prSet presAssocID="{C4A8987E-4640-402E-8FA7-16BF3AA45D94}" presName="rootText" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2" custLinFactNeighborX="-2759" custLinFactNeighborY="-4247">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1476,6 +1623,13 @@
     <dgm:pt modelId="{D003B79F-1675-4B0A-8A7F-4D90C1120758}" type="pres">
       <dgm:prSet presAssocID="{C4A8987E-4640-402E-8FA7-16BF3AA45D94}" presName="rootConnector" presStyleLbl="node3" presStyleIdx="1" presStyleCnt="2"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{9810F2BB-A302-4494-BC34-C3F715C9BB08}" type="pres">
       <dgm:prSet presAssocID="{C4A8987E-4640-402E-8FA7-16BF3AA45D94}" presName="hierChild4" presStyleCnt="0"/>
@@ -1492,6 +1646,13 @@
     <dgm:pt modelId="{6ADBBC16-1223-40DC-90EA-A8B5EBBC9CA4}" type="pres">
       <dgm:prSet presAssocID="{A844ED8F-43A6-4A39-B273-6AA3C1011ECB}" presName="Name37" presStyleLbl="parChTrans1D2" presStyleIdx="5" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{EF65063C-492E-4908-911D-90BCB4A35A26}" type="pres">
       <dgm:prSet presAssocID="{747051E6-3D23-4A36-8955-03B7B1B3290C}" presName="hierRoot2" presStyleCnt="0">
@@ -1506,7 +1667,7 @@
       <dgm:spPr/>
     </dgm:pt>
     <dgm:pt modelId="{19C4A40E-3C96-4B68-972C-3915BB8CE230}" type="pres">
-      <dgm:prSet presAssocID="{747051E6-3D23-4A36-8955-03B7B1B3290C}" presName="rootText" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6">
+      <dgm:prSet presAssocID="{747051E6-3D23-4A36-8955-03B7B1B3290C}" presName="rootText" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6" custLinFactNeighborX="1281">
         <dgm:presLayoutVars>
           <dgm:chPref val="3"/>
         </dgm:presLayoutVars>
@@ -1523,6 +1684,13 @@
     <dgm:pt modelId="{D03FB930-B384-485F-94E3-F9CF7C91ED08}" type="pres">
       <dgm:prSet presAssocID="{747051E6-3D23-4A36-8955-03B7B1B3290C}" presName="rootConnector" presStyleLbl="node2" presStyleIdx="5" presStyleCnt="6"/>
       <dgm:spPr/>
+      <dgm:t>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-SG"/>
+        </a:p>
+      </dgm:t>
     </dgm:pt>
     <dgm:pt modelId="{2EE633D8-F563-426C-BA29-4F63113CD2A6}" type="pres">
       <dgm:prSet presAssocID="{747051E6-3D23-4A36-8955-03B7B1B3290C}" presName="hierChild4" presStyleCnt="0"/>
@@ -1546,8 +1714,8 @@
     <dgm:cxn modelId="{CF85F472-D2F0-4084-99EB-93B6381BC8B7}" srcId="{E54EA5F0-FC4F-48E6-943B-560ACFE5DFED}" destId="{784DEF31-1FDE-46C3-9311-E691FC00398A}" srcOrd="4" destOrd="0" parTransId="{D6CB61EB-36A9-4F07-9BD9-8F0293009A91}" sibTransId="{0B607907-CD18-4350-B79D-DE838D1E2222}"/>
     <dgm:cxn modelId="{421840E3-E856-48B2-84A2-B0D134ACAD83}" type="presOf" srcId="{68058E79-54A0-4147-A0A2-05042E0236E4}" destId="{587CAAFF-602F-4A2C-81F2-CE244DBB4F51}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{D84F93E4-ABE4-4403-8876-89B6C8B53A14}" srcId="{C3BE4ADD-A185-42E6-BCDD-E4AC66FA3E1B}" destId="{FBE7E225-E57E-47E2-AEF0-8E4142AABAE1}" srcOrd="0" destOrd="0" parTransId="{D54234E8-B9F3-4354-8DE4-AA2A164B816D}" sibTransId="{26DFBC15-7D1B-42FE-910E-452B3E2E56D4}"/>
+    <dgm:cxn modelId="{EBA3DAF3-9451-4AA8-90D3-28C1C64B51C4}" type="presOf" srcId="{747051E6-3D23-4A36-8955-03B7B1B3290C}" destId="{19C4A40E-3C96-4B68-972C-3915BB8CE230}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{1031716A-2BA2-448F-B5F0-FE14861AA005}" type="presOf" srcId="{924783BB-5D32-4143-9497-30D2D930DF58}" destId="{4BECE089-0BAB-4A24-B501-29C5C42060E1}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
-    <dgm:cxn modelId="{EBA3DAF3-9451-4AA8-90D3-28C1C64B51C4}" type="presOf" srcId="{747051E6-3D23-4A36-8955-03B7B1B3290C}" destId="{19C4A40E-3C96-4B68-972C-3915BB8CE230}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
     <dgm:cxn modelId="{B279C763-7B3B-4E66-9963-8FDA27F440C7}" srcId="{784DEF31-1FDE-46C3-9311-E691FC00398A}" destId="{C4A8987E-4640-402E-8FA7-16BF3AA45D94}" srcOrd="0" destOrd="0" parTransId="{68058E79-54A0-4147-A0A2-05042E0236E4}" sibTransId="{1A2E7FAD-FB20-43F7-8B5A-4002CDBAC203}"/>
     <dgm:cxn modelId="{D4EE6C0F-BBC2-4B6D-82B2-7EB0C848F49F}" srcId="{924783BB-5D32-4143-9497-30D2D930DF58}" destId="{E54EA5F0-FC4F-48E6-943B-560ACFE5DFED}" srcOrd="0" destOrd="0" parTransId="{B7B68B7C-3797-4671-81D4-3995CFE6B711}" sibTransId="{A233695F-1D51-4CE8-B84E-5DDD6C6D0D57}"/>
     <dgm:cxn modelId="{CD63B6B9-8C07-416F-ACEE-345CA6D2B7A1}" type="presOf" srcId="{A844ED8F-43A6-4A39-B273-6AA3C1011ECB}" destId="{6ADBBC16-1223-40DC-90EA-A8B5EBBC9CA4}" srcOrd="0" destOrd="0" presId="urn:microsoft.com/office/officeart/2005/8/layout/orgChart1"/>
@@ -1662,8 +1830,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2481262" y="1289706"/>
-          <a:ext cx="2135262" cy="144386"/>
+          <a:off x="2464515" y="1291841"/>
+          <a:ext cx="2123057" cy="143412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1677,13 +1845,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="72193"/>
+                <a:pt x="0" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2135262" y="72193"/>
+                <a:pt x="2123057" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="2135262" y="144386"/>
+                <a:pt x="2123057" y="143412"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1722,8 +1890,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3409832" y="1777872"/>
-          <a:ext cx="119754" cy="316276"/>
+          <a:off x="3321395" y="1776712"/>
+          <a:ext cx="165527" cy="299639"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1737,10 +1905,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="316276"/>
+                <a:pt x="0" y="299639"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="119754" y="316276"/>
+                <a:pt x="165527" y="299639"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1779,8 +1947,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2481262" y="1289706"/>
-          <a:ext cx="1247915" cy="144386"/>
+          <a:off x="2464515" y="1291841"/>
+          <a:ext cx="1174069" cy="143412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1794,13 +1962,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="72193"/>
+                <a:pt x="0" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1247915" y="72193"/>
+                <a:pt x="1174069" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="1247915" y="144386"/>
+                <a:pt x="1174069" y="143412"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1839,8 +2007,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2481262" y="1289706"/>
-          <a:ext cx="360568" cy="144386"/>
+          <a:off x="2464515" y="1291841"/>
+          <a:ext cx="358134" cy="143412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1854,13 +2022,13 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="72193"/>
+                <a:pt x="0" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="360568" y="72193"/>
+                <a:pt x="358134" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="360568" y="144386"/>
+                <a:pt x="358134" y="143412"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1899,8 +2067,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2009887" y="1289706"/>
-          <a:ext cx="471375" cy="144386"/>
+          <a:off x="1996321" y="1291841"/>
+          <a:ext cx="468193" cy="143412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1911,16 +2079,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="471375" y="0"/>
+                <a:pt x="468193" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="471375" y="72193"/>
+                <a:pt x="468193" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="72193"/>
+                <a:pt x="0" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="144386"/>
+                <a:pt x="0" y="143412"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -1959,8 +2127,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="902920" y="1777872"/>
-          <a:ext cx="103133" cy="316276"/>
+          <a:off x="896826" y="1776712"/>
+          <a:ext cx="102437" cy="314141"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1974,10 +2142,10 @@
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="0" y="316276"/>
+                <a:pt x="0" y="314141"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="103133" y="316276"/>
+                <a:pt x="102437" y="314141"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2016,8 +2184,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1177943" y="1289706"/>
-          <a:ext cx="1303319" cy="144386"/>
+          <a:off x="1169993" y="1291841"/>
+          <a:ext cx="1294522" cy="143412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2028,16 +2196,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="1303319" y="0"/>
+                <a:pt x="1294522" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="1303319" y="72193"/>
+                <a:pt x="1294522" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="72193"/>
+                <a:pt x="0" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="144386"/>
+                <a:pt x="0" y="143412"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2076,8 +2244,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="345999" y="1289706"/>
-          <a:ext cx="2135262" cy="144386"/>
+          <a:off x="343664" y="1291841"/>
+          <a:ext cx="2120851" cy="143412"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2088,16 +2256,16 @@
           <a:pathLst>
             <a:path>
               <a:moveTo>
-                <a:pt x="2135262" y="0"/>
+                <a:pt x="2120851" y="0"/>
               </a:moveTo>
               <a:lnTo>
-                <a:pt x="2135262" y="72193"/>
+                <a:pt x="2120851" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="72193"/>
+                <a:pt x="0" y="71706"/>
               </a:lnTo>
               <a:lnTo>
-                <a:pt x="0" y="144386"/>
+                <a:pt x="0" y="143412"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2136,8 +2304,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2137484" y="945928"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="2123057" y="950383"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2201,8 +2369,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2137484" y="945928"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="2123057" y="950383"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F3770A4A-7E59-4497-8925-AB4ECD535C52}">
@@ -2212,8 +2380,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2221" y="1434093"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="2206" y="1435253"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2277,8 +2445,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2221" y="1434093"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="2206" y="1435253"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{ECAD0728-1308-4516-85A3-CDDB415D9859}">
@@ -2288,8 +2456,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="834165" y="1434093"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="828534" y="1435253"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2353,8 +2521,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="834165" y="1434093"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="828534" y="1435253"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{5ACB6221-CC95-4A4C-A865-23A138E065CC}">
@@ -2364,8 +2532,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1006054" y="1922259"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="999263" y="1920124"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2429,8 +2597,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1006054" y="1922259"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="999263" y="1920124"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{F089B037-50CC-4FB0-A7C9-7F9376522D36}">
@@ -2440,8 +2608,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="1666108" y="1434093"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="1654863" y="1435253"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2505,8 +2673,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="1666108" y="1434093"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="1654863" y="1435253"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{452CBC07-EFAA-44A4-A6D7-F0CC842E4ABC}">
@@ -2516,8 +2684,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="2498052" y="1434093"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="2481192" y="1435253"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2581,8 +2749,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="2498052" y="1434093"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="2481192" y="1435253"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{1ED7DE2C-D46E-406F-8350-C506C51735B0}">
@@ -2592,8 +2760,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3329996" y="1434093"/>
-          <a:ext cx="798363" cy="343778"/>
+          <a:off x="3242097" y="1435253"/>
+          <a:ext cx="792975" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2657,8 +2825,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3329996" y="1434093"/>
-        <a:ext cx="798363" cy="343778"/>
+        <a:off x="3242097" y="1435253"/>
+        <a:ext cx="792975" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{6A250F87-D49D-4CD2-B157-484E230BE224}">
@@ -2668,8 +2836,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="3529587" y="1922259"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="3486923" y="1905622"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2733,8 +2901,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="3529587" y="1922259"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="3486923" y="1905622"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
     <dsp:sp modelId="{19C4A40E-3C96-4B68-972C-3915BB8CE230}">
@@ -2744,8 +2912,8 @@
       </dsp:nvSpPr>
       <dsp:spPr>
         <a:xfrm>
-          <a:off x="4272746" y="1434093"/>
-          <a:ext cx="687556" cy="343778"/>
+          <a:off x="4246114" y="1435253"/>
+          <a:ext cx="682916" cy="341458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2809,8 +2977,8 @@
         </a:p>
       </dsp:txBody>
       <dsp:txXfrm>
-        <a:off x="4272746" y="1434093"/>
-        <a:ext cx="687556" cy="343778"/>
+        <a:off x="4246114" y="1435253"/>
+        <a:ext cx="682916" cy="341458"/>
       </dsp:txXfrm>
     </dsp:sp>
   </dsp:spTree>
@@ -5029,6 +5197,54 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78827</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>308742</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>105103</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="Straight Arrow Connector 15"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4355224" y="1819603"/>
+          <a:ext cx="229915" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5321,8 +5537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
